--- a/Intermediate II/Week 5/workbook/W5_V2 DataTables.xlsx
+++ b/Intermediate II/Week 5/workbook/W5_V2 DataTables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course3\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate II\Week 5\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D70E4F6-9F35-4CEF-8207-04C405269D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9130" yWindow="310" windowWidth="10070" windowHeight="9490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections &amp; Estimates" sheetId="3" r:id="rId1"/>
@@ -63,11 +64,19 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">24</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -240,11 +249,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -777,11 +786,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -825,17 +834,17 @@
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -884,16 +893,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33"/>
     <xf numFmtId="165" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33"/>
-    <xf numFmtId="164" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -908,8 +917,8 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
@@ -1276,22 +1285,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.4609375" customWidth="1"/>
-    <col min="2" max="3" width="18.4609375" customWidth="1"/>
-    <col min="4" max="4" width="19.61328125" customWidth="1"/>
-    <col min="5" max="5" width="18.4609375" customWidth="1"/>
-    <col min="6" max="6" width="17.3828125" customWidth="1"/>
-    <col min="7" max="7" width="20.921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.3828125" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1312,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1313,7 +1322,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>26</v>
       </c>
@@ -1388,7 +1397,7 @@
       </c>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1416,7 @@
       </c>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>27</v>
       </c>
@@ -1426,7 +1435,7 @@
       </c>
       <c r="F9" s="35"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
@@ -1445,7 +1454,7 @@
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>29</v>
       </c>
@@ -1464,7 +1473,7 @@
       </c>
       <c r="F11" s="35"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>31</v>
       </c>
@@ -1477,7 +1486,7 @@
       </c>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1485,17 +1494,20 @@
       <c r="E13" s="35"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="34">
+        <f>E16*(1+E17)</f>
+        <v>100280.00000000001</v>
+      </c>
       <c r="C15" s="31"/>
       <c r="D15" s="37" t="s">
         <v>45</v>
@@ -1503,11 +1515,14 @@
       <c r="E15" s="37"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>0.05</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="31">
+        <f t="dataTable" ref="B16:B23" dt2D="0" dtr="0" r1="E17"/>
+        <v>96600</v>
+      </c>
       <c r="C16" s="31"/>
       <c r="D16" s="42" t="s">
         <v>40</v>
@@ -1517,11 +1532,13 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="31">
+        <v>97980</v>
+      </c>
       <c r="C17" s="31"/>
       <c r="D17" s="42" t="s">
         <v>44</v>
@@ -1531,27 +1548,33 @@
       </c>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>0.08</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="31">
+        <v>99360</v>
+      </c>
       <c r="C18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="31">
+        <v>100740</v>
+      </c>
       <c r="C19" s="31"/>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>0.11</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="31">
+        <v>102120.00000000001</v>
+      </c>
       <c r="C20" s="31"/>
       <c r="D20" s="37" t="s">
         <v>46</v>
@@ -1561,11 +1584,13 @@
       <c r="G20"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>0.125</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="31">
+        <v>103500</v>
+      </c>
       <c r="C21" s="31"/>
       <c r="D21" s="42" t="s">
         <v>38</v>
@@ -1577,11 +1602,13 @@
       <c r="G21"/>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="31">
+        <v>104880.00000000001</v>
+      </c>
       <c r="C22" s="31"/>
       <c r="D22" s="42" t="s">
         <v>43</v>
@@ -1593,11 +1620,13 @@
       <c r="G22"/>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>0.155</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="31">
+        <v>106260</v>
+      </c>
       <c r="D23" s="44" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +1634,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>36</v>
       </c>
@@ -1617,8 +1646,11 @@
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="32"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="32">
+        <f>E21*E22*(1+E23)</f>
+        <v>176015</v>
+      </c>
       <c r="B26" s="38">
         <v>30</v>
       </c>
@@ -1647,101 +1679,214 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="39">
         <v>0.03</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="31">
+        <f t="dataTable" ref="B27:H34" dt2D="1" dtr="1" r1="E21" r2="E23"/>
+        <v>145230</v>
+      </c>
+      <c r="C27" s="31">
+        <v>157332.5</v>
+      </c>
+      <c r="D27" s="31">
+        <v>169435</v>
+      </c>
+      <c r="E27" s="31">
+        <v>181537.5</v>
+      </c>
+      <c r="F27" s="31">
+        <v>193640</v>
+      </c>
+      <c r="G27" s="31">
+        <v>205742.5</v>
+      </c>
+      <c r="H27" s="31">
+        <v>217845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>0.04</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="31">
+        <v>146640</v>
+      </c>
+      <c r="C28" s="31">
+        <v>158860</v>
+      </c>
+      <c r="D28" s="31">
+        <v>171080</v>
+      </c>
+      <c r="E28" s="31">
+        <v>183300</v>
+      </c>
+      <c r="F28" s="31">
+        <v>195520</v>
+      </c>
+      <c r="G28" s="31">
+        <v>207740</v>
+      </c>
+      <c r="H28" s="31">
+        <v>219960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="39">
         <v>0.05</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="31">
+        <v>148050</v>
+      </c>
+      <c r="C29" s="31">
+        <v>160387.5</v>
+      </c>
+      <c r="D29" s="31">
+        <v>172725</v>
+      </c>
+      <c r="E29" s="31">
+        <v>185062.5</v>
+      </c>
+      <c r="F29" s="31">
+        <v>197400</v>
+      </c>
+      <c r="G29" s="31">
+        <v>209737.5</v>
+      </c>
+      <c r="H29" s="31">
+        <v>222075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="39">
         <v>0.06</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="31">
+        <v>149460</v>
+      </c>
+      <c r="C30" s="31">
+        <v>161915</v>
+      </c>
+      <c r="D30" s="31">
+        <v>174370</v>
+      </c>
+      <c r="E30" s="31">
+        <v>186825</v>
+      </c>
+      <c r="F30" s="31">
+        <v>199280</v>
+      </c>
+      <c r="G30" s="31">
+        <v>211735</v>
+      </c>
+      <c r="H30" s="31">
+        <v>224190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="39">
         <v>0.08</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="31">
+        <v>152280</v>
+      </c>
+      <c r="C31" s="31">
+        <v>164970</v>
+      </c>
+      <c r="D31" s="31">
+        <v>177660</v>
+      </c>
+      <c r="E31" s="31">
+        <v>190350</v>
+      </c>
+      <c r="F31" s="31">
+        <v>203040</v>
+      </c>
+      <c r="G31" s="31">
+        <v>215730</v>
+      </c>
+      <c r="H31" s="31">
+        <v>228420.00000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="39">
         <v>0.09</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="31">
+        <v>153690</v>
+      </c>
+      <c r="C32" s="31">
+        <v>166497.5</v>
+      </c>
+      <c r="D32" s="31">
+        <v>179305</v>
+      </c>
+      <c r="E32" s="31">
+        <v>192112.5</v>
+      </c>
+      <c r="F32" s="31">
+        <v>204920.00000000003</v>
+      </c>
+      <c r="G32" s="31">
+        <v>217727.50000000003</v>
+      </c>
+      <c r="H32" s="31">
+        <v>230535.00000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="39">
         <v>0.1</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="31">
+        <v>155100</v>
+      </c>
+      <c r="C33" s="31">
+        <v>168025</v>
+      </c>
+      <c r="D33" s="31">
+        <v>180950.00000000003</v>
+      </c>
+      <c r="E33" s="31">
+        <v>193875.00000000003</v>
+      </c>
+      <c r="F33" s="31">
+        <v>206800.00000000003</v>
+      </c>
+      <c r="G33" s="31">
+        <v>219725.00000000003</v>
+      </c>
+      <c r="H33" s="31">
+        <v>232650.00000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="39">
         <v>0.11</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
+      <c r="B34" s="31">
+        <v>156510</v>
+      </c>
+      <c r="C34" s="31">
+        <v>169552.50000000003</v>
+      </c>
+      <c r="D34" s="31">
+        <v>182595.00000000003</v>
+      </c>
+      <c r="E34" s="31">
+        <v>195637.50000000003</v>
+      </c>
+      <c r="F34" s="31">
+        <v>208680.00000000003</v>
+      </c>
+      <c r="G34" s="31">
+        <v>221722.50000000003</v>
+      </c>
+      <c r="H34" s="31">
+        <v>234765.00000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,17 +1901,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.61328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.61328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.61328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.61328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.921875" style="1"/>
+    <col min="1" max="1" width="40.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1921,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="18" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1784,7 +1929,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1792,7 +1937,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1804,7 +1949,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -1821,7 +1966,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1838,7 +1983,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +2000,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1867,7 +2012,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1881,7 +2026,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1898,7 +2043,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1915,7 +2060,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1932,13 +2077,13 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +2093,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1965,7 +2110,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +2127,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +2145,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -2017,7 +2162,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -2025,7 +2170,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2043,37 +2188,37 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
